--- a/LegoSzettek.xlsx
+++ b/LegoSzettek.xlsx
@@ -5,14 +5,15 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\2023-24\IKT projektmunka II\! Adatbázis_FB_SZZ\Projekt_Adat_ZB\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Iskola\Daniel_tanar\Projekt_Adat_ZB\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14865" windowHeight="3015"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14865" windowHeight="3015" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Munka1" sheetId="1" r:id="rId1"/>
+    <sheet name="Szettek" sheetId="1" r:id="rId1"/>
+    <sheet name="Gyárak" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="58">
   <si>
     <t>Szett</t>
   </si>
@@ -156,6 +157,48 @@
   </si>
   <si>
     <t>Polaroid OneStep SX-70 Fényképezőgép</t>
+  </si>
+  <si>
+    <t>ÁHM</t>
+  </si>
+  <si>
+    <t>ÉpitésiÉv</t>
+  </si>
+  <si>
+    <t>Település</t>
+  </si>
+  <si>
+    <t>Bevétel</t>
+  </si>
+  <si>
+    <t>Győri Lego Gyár</t>
+  </si>
+  <si>
+    <t>Győr</t>
+  </si>
+  <si>
+    <t>Debreceni Lego Gyár</t>
+  </si>
+  <si>
+    <t>Debrecen</t>
+  </si>
+  <si>
+    <t>Nyíregyházi Lego Gyár</t>
+  </si>
+  <si>
+    <t>Nyíregyháza</t>
+  </si>
+  <si>
+    <t>Pécsi Lego Gyár</t>
+  </si>
+  <si>
+    <t>Pécs</t>
+  </si>
+  <si>
+    <t>Soproni Lego Gyár</t>
+  </si>
+  <si>
+    <t>Sopron</t>
   </si>
 </sst>
 </file>
@@ -479,8 +522,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -954,4 +997,119 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:E7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2700000</v>
+      </c>
+      <c r="B3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C3">
+        <v>2014</v>
+      </c>
+      <c r="D3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E3">
+        <v>108000000000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2850000</v>
+      </c>
+      <c r="B4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C4">
+        <v>1956</v>
+      </c>
+      <c r="D4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E4">
+        <v>114000000000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>2500000</v>
+      </c>
+      <c r="B5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C5">
+        <v>2008</v>
+      </c>
+      <c r="D5" t="s">
+        <v>53</v>
+      </c>
+      <c r="E5">
+        <v>100000000000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>3000000</v>
+      </c>
+      <c r="B6" t="s">
+        <v>54</v>
+      </c>
+      <c r="C6">
+        <v>2012</v>
+      </c>
+      <c r="D6" t="s">
+        <v>55</v>
+      </c>
+      <c r="E6">
+        <v>120000000000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>3100000</v>
+      </c>
+      <c r="B7" t="s">
+        <v>56</v>
+      </c>
+      <c r="C7">
+        <v>1942</v>
+      </c>
+      <c r="D7" t="s">
+        <v>57</v>
+      </c>
+      <c r="E7">
+        <v>124000000000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/LegoSzettek.xlsx
+++ b/LegoSzettek.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="97">
   <si>
     <t>Szett</t>
   </si>
@@ -119,21 +119,12 @@
     <t>Disney</t>
   </si>
   <si>
-    <t>Mickey egér és Minnie egér tanévkezdő doboz</t>
-  </si>
-  <si>
-    <t>Dots</t>
-  </si>
-  <si>
     <t>Állatok a vonaton</t>
   </si>
   <si>
     <t>Duplo</t>
   </si>
   <si>
-    <t>Villám McQueen és matuka vidám autómosása</t>
-  </si>
-  <si>
     <t>Botanikuskert</t>
   </si>
   <si>
@@ -146,9 +137,6 @@
     <t>Harry Potter</t>
   </si>
   <si>
-    <t>Doby a házimanó</t>
-  </si>
-  <si>
     <t>Londoni piros telefonfülke</t>
   </si>
   <si>
@@ -156,6 +144,177 @@
   </si>
   <si>
     <t>Polaroid OneStep SX-70 Fényképezőgép</t>
+  </si>
+  <si>
+    <t>Triceratopsz kutatás</t>
+  </si>
+  <si>
+    <t>Jurassic Park</t>
+  </si>
+  <si>
+    <t>Dilophosaurus támadás</t>
+  </si>
+  <si>
+    <t>Isabelle látogatóba megy</t>
+  </si>
+  <si>
+    <t>Animal Crossing</t>
+  </si>
+  <si>
+    <t>Julian születésnapi zsúrja</t>
+  </si>
+  <si>
+    <t>Hokuszai - A nagy hullám</t>
+  </si>
+  <si>
+    <t>Art</t>
+  </si>
+  <si>
+    <t>Toruk Makto és a Lelkek fája</t>
+  </si>
+  <si>
+    <t>Avatar</t>
+  </si>
+  <si>
+    <t>Játék Braille-írással - Az angol ábécé</t>
+  </si>
+  <si>
+    <t>Braille</t>
+  </si>
+  <si>
+    <t>Álomfalu</t>
+  </si>
+  <si>
+    <t>DreamZzz</t>
+  </si>
+  <si>
+    <t>Peppa malac kertje és lombháza</t>
+  </si>
+  <si>
+    <t>Peppa</t>
+  </si>
+  <si>
+    <t>LEGO Education SPIKE Prime Set</t>
+  </si>
+  <si>
+    <t>Education</t>
+  </si>
+  <si>
+    <t>Gabi babaháza</t>
+  </si>
+  <si>
+    <t>Gabby's Dollhouse</t>
+  </si>
+  <si>
+    <t>McLaren MP4/4 és Aytron Senna</t>
+  </si>
+  <si>
+    <t>Icons</t>
+  </si>
+  <si>
+    <t>Jégmadár</t>
+  </si>
+  <si>
+    <t>A GYŰRŰK URA VÖLGYZUGOLY</t>
+  </si>
+  <si>
+    <t>Menekülés az elveszett sírból</t>
+  </si>
+  <si>
+    <t>Indiana Jones</t>
+  </si>
+  <si>
+    <t>Nintendo Entertainment System</t>
+  </si>
+  <si>
+    <t>Super Mario</t>
+  </si>
+  <si>
+    <t>Lord of the Rings</t>
+  </si>
+  <si>
+    <t>Bosszúállók torony</t>
+  </si>
+  <si>
+    <t>Marvel</t>
+  </si>
+  <si>
+    <t>A méhkaptár</t>
+  </si>
+  <si>
+    <t>Minecraft</t>
+  </si>
+  <si>
+    <t>Yellow Tusk Elephant</t>
+  </si>
+  <si>
+    <t>Sárkánykő szetély</t>
+  </si>
+  <si>
+    <t>NinjaGo</t>
+  </si>
+  <si>
+    <t>MonkieKid</t>
+  </si>
+  <si>
+    <t>Nagy Zongora</t>
+  </si>
+  <si>
+    <t>PoweredUp</t>
+  </si>
+  <si>
+    <t>Amy állatmentő szigete</t>
+  </si>
+  <si>
+    <t>Sonic the Hedgehog</t>
+  </si>
+  <si>
+    <t>Audi S1 e-tron quattro versenyautó</t>
+  </si>
+  <si>
+    <t>Speed champions</t>
+  </si>
+  <si>
+    <t>Pókember maszkja</t>
+  </si>
+  <si>
+    <t>Spiderman</t>
+  </si>
+  <si>
+    <t>R2-D2</t>
+  </si>
+  <si>
+    <t>StarWars</t>
+  </si>
+  <si>
+    <t>A Földés a körülötte keringő Hold</t>
+  </si>
+  <si>
+    <t>Technic</t>
+  </si>
+  <si>
+    <t>A tűzsárkány lávabarlangja</t>
+  </si>
+  <si>
+    <t>false</t>
+  </si>
+  <si>
+    <t>Elves</t>
+  </si>
+  <si>
+    <t>NULL</t>
+  </si>
+  <si>
+    <t>Agymenők</t>
+  </si>
+  <si>
+    <t>A titokzatos gépezet</t>
+  </si>
+  <si>
+    <t>Scooby-Doo</t>
+  </si>
+  <si>
+    <t>Dobby a házimanó</t>
   </si>
 </sst>
 </file>
@@ -477,20 +636,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G23"/>
+  <dimension ref="A1:G51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="4.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="43.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="5.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.85546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -529,6 +688,9 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2017</v>
+      </c>
       <c r="B3" t="s">
         <v>8</v>
       </c>
@@ -549,6 +711,9 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2023</v>
+      </c>
       <c r="B4" t="s">
         <v>11</v>
       </c>
@@ -569,6 +734,9 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>2023</v>
+      </c>
       <c r="B5" t="s">
         <v>13</v>
       </c>
@@ -589,6 +757,9 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>92</v>
+      </c>
       <c r="B6" t="s">
         <v>15</v>
       </c>
@@ -609,6 +780,9 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>2023</v>
+      </c>
       <c r="B7" t="s">
         <v>16</v>
       </c>
@@ -629,6 +803,9 @@
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>2024</v>
+      </c>
       <c r="B8" t="s">
         <v>20</v>
       </c>
@@ -649,6 +826,9 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>2023</v>
+      </c>
       <c r="B9" t="s">
         <v>19</v>
       </c>
@@ -669,6 +849,9 @@
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>2024</v>
+      </c>
       <c r="B10" t="s">
         <v>21</v>
       </c>
@@ -689,6 +872,9 @@
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>2023</v>
+      </c>
       <c r="B11" t="s">
         <v>23</v>
       </c>
@@ -709,6 +895,9 @@
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>2021</v>
+      </c>
       <c r="B12" t="s">
         <v>25</v>
       </c>
@@ -729,6 +918,9 @@
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>2022</v>
+      </c>
       <c r="B13" t="s">
         <v>26</v>
       </c>
@@ -749,6 +941,9 @@
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>2023</v>
+      </c>
       <c r="B14" t="s">
         <v>27</v>
       </c>
@@ -769,6 +964,9 @@
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>2023</v>
+      </c>
       <c r="B15" t="s">
         <v>29</v>
       </c>
@@ -789,163 +987,732 @@
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>2024</v>
+      </c>
       <c r="B16" t="s">
         <v>31</v>
       </c>
       <c r="C16">
-        <v>18490</v>
+        <v>6990</v>
       </c>
       <c r="D16" t="s">
         <v>9</v>
       </c>
       <c r="E16">
-        <v>669</v>
+        <v>19</v>
       </c>
       <c r="F16" t="s">
         <v>32</v>
       </c>
       <c r="G16">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>2023</v>
+      </c>
       <c r="B17" t="s">
         <v>33</v>
       </c>
       <c r="C17">
-        <v>6990</v>
+        <v>35990</v>
       </c>
       <c r="D17" t="s">
         <v>9</v>
       </c>
       <c r="E17">
-        <v>19</v>
+        <v>1072</v>
       </c>
       <c r="F17" t="s">
         <v>34</v>
       </c>
       <c r="G17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>2023</v>
+      </c>
       <c r="B18" t="s">
         <v>35</v>
       </c>
       <c r="C18">
-        <v>13990</v>
+        <v>172990</v>
       </c>
       <c r="D18" t="s">
         <v>9</v>
       </c>
       <c r="E18">
-        <v>29</v>
+        <v>4801</v>
       </c>
       <c r="F18" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G18">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>2023</v>
+      </c>
       <c r="B19" t="s">
+        <v>96</v>
+      </c>
+      <c r="C19">
+        <v>11990</v>
+      </c>
+      <c r="D19" t="s">
+        <v>9</v>
+      </c>
+      <c r="E19">
+        <v>403</v>
+      </c>
+      <c r="F19" t="s">
         <v>36</v>
       </c>
-      <c r="C19">
-        <v>35990</v>
-      </c>
-      <c r="D19" t="s">
-        <v>9</v>
-      </c>
-      <c r="E19">
-        <v>1072</v>
-      </c>
-      <c r="F19" t="s">
+      <c r="G19">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
         <v>37</v>
       </c>
-      <c r="G19">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B20" t="s">
+      <c r="C20">
+        <v>47990</v>
+      </c>
+      <c r="D20" t="s">
+        <v>9</v>
+      </c>
+      <c r="E20">
+        <v>1460</v>
+      </c>
+      <c r="F20" t="s">
         <v>38</v>
-      </c>
-      <c r="C20">
-        <v>172990</v>
-      </c>
-      <c r="D20" t="s">
-        <v>9</v>
-      </c>
-      <c r="E20">
-        <v>4801</v>
-      </c>
-      <c r="F20" t="s">
-        <v>39</v>
       </c>
       <c r="G20">
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
+        <v>39</v>
+      </c>
+      <c r="C21">
+        <v>33990</v>
+      </c>
+      <c r="D21" t="s">
+        <v>9</v>
+      </c>
+      <c r="E21">
+        <v>516</v>
+      </c>
+      <c r="F21" t="s">
+        <v>38</v>
+      </c>
+      <c r="G21">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
         <v>40</v>
       </c>
-      <c r="C21">
+      <c r="C22">
+        <v>22290</v>
+      </c>
+      <c r="D22" t="s">
+        <v>9</v>
+      </c>
+      <c r="E22">
+        <v>281</v>
+      </c>
+      <c r="F22" t="s">
+        <v>41</v>
+      </c>
+      <c r="G22">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>42</v>
+      </c>
+      <c r="C23">
+        <v>9990</v>
+      </c>
+      <c r="D23" t="s">
+        <v>9</v>
+      </c>
+      <c r="E23">
+        <v>211</v>
+      </c>
+      <c r="F23" t="s">
+        <v>41</v>
+      </c>
+      <c r="G23">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>43</v>
+      </c>
+      <c r="C24">
+        <v>16990</v>
+      </c>
+      <c r="D24" t="s">
+        <v>9</v>
+      </c>
+      <c r="E24">
+        <v>389</v>
+      </c>
+      <c r="F24" t="s">
+        <v>44</v>
+      </c>
+      <c r="G24">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>45</v>
+      </c>
+      <c r="C25">
+        <v>5990</v>
+      </c>
+      <c r="D25" t="s">
+        <v>9</v>
+      </c>
+      <c r="E25">
+        <v>170</v>
+      </c>
+      <c r="F25" t="s">
+        <v>44</v>
+      </c>
+      <c r="G25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>46</v>
+      </c>
+      <c r="C26">
+        <v>39990</v>
+      </c>
+      <c r="D26" t="s">
+        <v>9</v>
+      </c>
+      <c r="E26">
+        <v>1810</v>
+      </c>
+      <c r="F26" t="s">
+        <v>47</v>
+      </c>
+      <c r="G26">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>48</v>
+      </c>
+      <c r="C27">
+        <v>62990</v>
+      </c>
+      <c r="D27" t="s">
+        <v>9</v>
+      </c>
+      <c r="E27">
+        <v>1212</v>
+      </c>
+      <c r="F27" t="s">
+        <v>49</v>
+      </c>
+      <c r="G27">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
+        <v>50</v>
+      </c>
+      <c r="C28">
+        <v>32990</v>
+      </c>
+      <c r="D28" t="s">
+        <v>9</v>
+      </c>
+      <c r="E28">
+        <v>287</v>
+      </c>
+      <c r="F28" t="s">
+        <v>51</v>
+      </c>
+      <c r="G28">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
+        <v>52</v>
+      </c>
+      <c r="C29">
         <v>11990</v>
       </c>
-      <c r="D21" t="s">
-        <v>9</v>
-      </c>
-      <c r="E21">
-        <v>403</v>
-      </c>
-      <c r="F21" t="s">
-        <v>39</v>
-      </c>
-      <c r="G21">
+      <c r="D29" t="s">
+        <v>9</v>
+      </c>
+      <c r="E29">
+        <v>434</v>
+      </c>
+      <c r="F29" t="s">
+        <v>53</v>
+      </c>
+      <c r="G29">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
+        <v>54</v>
+      </c>
+      <c r="C30">
+        <v>7490</v>
+      </c>
+      <c r="D30" t="s">
+        <v>9</v>
+      </c>
+      <c r="E30">
+        <v>20</v>
+      </c>
+      <c r="F30" t="s">
+        <v>55</v>
+      </c>
+      <c r="G30">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
+        <v>56</v>
+      </c>
+      <c r="C31">
+        <v>198990</v>
+      </c>
+      <c r="D31" t="s">
+        <v>9</v>
+      </c>
+      <c r="E31">
+        <v>528</v>
+      </c>
+      <c r="F31" t="s">
+        <v>57</v>
+      </c>
+      <c r="G31">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B32" t="s">
+        <v>58</v>
+      </c>
+      <c r="C32">
+        <v>32990</v>
+      </c>
+      <c r="D32" t="s">
+        <v>9</v>
+      </c>
+      <c r="E32">
+        <v>498</v>
+      </c>
+      <c r="F32" t="s">
+        <v>59</v>
+      </c>
+      <c r="G32">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B33" t="s">
+        <v>60</v>
+      </c>
+      <c r="C33">
+        <v>31990</v>
+      </c>
+      <c r="D33" t="s">
+        <v>9</v>
+      </c>
+      <c r="E33">
+        <v>693</v>
+      </c>
+      <c r="F33" t="s">
+        <v>61</v>
+      </c>
+      <c r="G33">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>2024</v>
+      </c>
+      <c r="B34" t="s">
+        <v>62</v>
+      </c>
+      <c r="C34">
+        <v>19990</v>
+      </c>
+      <c r="D34" t="s">
+        <v>9</v>
+      </c>
+      <c r="E34">
+        <v>834</v>
+      </c>
+      <c r="F34" t="s">
+        <v>61</v>
+      </c>
+      <c r="G34">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B35" t="s">
+        <v>63</v>
+      </c>
+      <c r="C35">
+        <v>199990</v>
+      </c>
+      <c r="D35" t="s">
+        <v>9</v>
+      </c>
+      <c r="E35">
+        <v>6167</v>
+      </c>
+      <c r="F35" t="s">
+        <v>68</v>
+      </c>
+      <c r="G35">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B36" t="s">
+        <v>64</v>
+      </c>
+      <c r="C36">
+        <v>16990</v>
+      </c>
+      <c r="D36" t="s">
+        <v>9</v>
+      </c>
+      <c r="E36">
+        <v>600</v>
+      </c>
+      <c r="F36" t="s">
+        <v>65</v>
+      </c>
+      <c r="G36">
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B22" t="s">
-        <v>41</v>
-      </c>
-      <c r="C22">
-        <v>47990</v>
-      </c>
-      <c r="D22" t="s">
-        <v>9</v>
-      </c>
-      <c r="E22">
-        <v>1460</v>
-      </c>
-      <c r="F22" t="s">
-        <v>42</v>
-      </c>
-      <c r="G22">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B37" t="s">
+        <v>66</v>
+      </c>
+      <c r="C37">
+        <v>109990</v>
+      </c>
+      <c r="D37" t="s">
+        <v>9</v>
+      </c>
+      <c r="E37">
+        <v>2646</v>
+      </c>
+      <c r="F37" t="s">
+        <v>67</v>
+      </c>
+      <c r="G37">
         <v>18</v>
       </c>
     </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B23" t="s">
-        <v>43</v>
-      </c>
-      <c r="C23">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B38" t="s">
+        <v>69</v>
+      </c>
+      <c r="C38">
+        <v>199990</v>
+      </c>
+      <c r="D38" t="s">
+        <v>9</v>
+      </c>
+      <c r="E38">
+        <v>5201</v>
+      </c>
+      <c r="F38" t="s">
+        <v>70</v>
+      </c>
+      <c r="G38">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B39" t="s">
+        <v>71</v>
+      </c>
+      <c r="C39">
+        <v>7990</v>
+      </c>
+      <c r="D39" t="s">
+        <v>9</v>
+      </c>
+      <c r="E39">
+        <v>254</v>
+      </c>
+      <c r="F39" t="s">
+        <v>72</v>
+      </c>
+      <c r="G39">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B40" t="s">
+        <v>73</v>
+      </c>
+      <c r="C40">
+        <v>28990</v>
+      </c>
+      <c r="D40" t="s">
+        <v>9</v>
+      </c>
+      <c r="E40">
+        <v>844</v>
+      </c>
+      <c r="F40" t="s">
+        <v>76</v>
+      </c>
+      <c r="G40">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B41" t="s">
+        <v>74</v>
+      </c>
+      <c r="C41">
+        <v>49990</v>
+      </c>
+      <c r="D41" t="s">
+        <v>9</v>
+      </c>
+      <c r="E41">
+        <v>1212</v>
+      </c>
+      <c r="F41" t="s">
+        <v>75</v>
+      </c>
+      <c r="G41">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B42" t="s">
+        <v>77</v>
+      </c>
+      <c r="C42">
+        <v>163990</v>
+      </c>
+      <c r="D42" t="s">
+        <v>9</v>
+      </c>
+      <c r="E42">
+        <v>3662</v>
+      </c>
+      <c r="F42" t="s">
+        <v>78</v>
+      </c>
+      <c r="G42">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B43" t="s">
+        <v>79</v>
+      </c>
+      <c r="C43">
+        <v>22290</v>
+      </c>
+      <c r="D43" t="s">
+        <v>9</v>
+      </c>
+      <c r="E43">
+        <v>388</v>
+      </c>
+      <c r="F43" t="s">
+        <v>80</v>
+      </c>
+      <c r="G43">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B44" t="s">
+        <v>81</v>
+      </c>
+      <c r="C44">
+        <v>9990</v>
+      </c>
+      <c r="D44" t="s">
+        <v>9</v>
+      </c>
+      <c r="E44">
+        <v>274</v>
+      </c>
+      <c r="F44" t="s">
+        <v>82</v>
+      </c>
+      <c r="G44">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>2024</v>
+      </c>
+      <c r="B45" t="s">
+        <v>83</v>
+      </c>
+      <c r="C45">
+        <v>28990</v>
+      </c>
+      <c r="D45" t="s">
+        <v>9</v>
+      </c>
+      <c r="E45">
+        <v>487</v>
+      </c>
+      <c r="F45" t="s">
+        <v>84</v>
+      </c>
+      <c r="G45">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B46" t="s">
+        <v>85</v>
+      </c>
+      <c r="C46">
+        <v>42990</v>
+      </c>
+      <c r="D46" t="s">
+        <v>9</v>
+      </c>
+      <c r="E46">
+        <v>1050</v>
+      </c>
+      <c r="F46" t="s">
+        <v>86</v>
+      </c>
+      <c r="G46">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B47" t="s">
+        <v>87</v>
+      </c>
+      <c r="C47">
         <v>33990</v>
       </c>
-      <c r="D23" t="s">
-        <v>9</v>
-      </c>
-      <c r="E23">
-        <v>516</v>
-      </c>
-      <c r="F23" t="s">
-        <v>42</v>
-      </c>
-      <c r="G23">
-        <v>18</v>
+      <c r="D47" t="s">
+        <v>9</v>
+      </c>
+      <c r="E47">
+        <v>526</v>
+      </c>
+      <c r="F47" t="s">
+        <v>88</v>
+      </c>
+      <c r="G47">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B48" t="s">
+        <v>89</v>
+      </c>
+      <c r="C48" t="s">
+        <v>92</v>
+      </c>
+      <c r="D48" t="s">
+        <v>90</v>
+      </c>
+      <c r="E48">
+        <v>441</v>
+      </c>
+      <c r="F48" t="s">
+        <v>91</v>
+      </c>
+      <c r="G48">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>2016</v>
+      </c>
+      <c r="B49" t="s">
+        <v>93</v>
+      </c>
+      <c r="C49" t="s">
+        <v>92</v>
+      </c>
+      <c r="D49" t="s">
+        <v>90</v>
+      </c>
+      <c r="E49">
+        <v>484</v>
+      </c>
+      <c r="F49" t="s">
+        <v>38</v>
+      </c>
+      <c r="G49">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>2015</v>
+      </c>
+      <c r="B50" t="s">
+        <v>94</v>
+      </c>
+      <c r="C50" t="s">
+        <v>92</v>
+      </c>
+      <c r="D50" t="s">
+        <v>90</v>
+      </c>
+      <c r="E50">
+        <v>301</v>
+      </c>
+      <c r="F50" t="s">
+        <v>95</v>
+      </c>
+      <c r="G50">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>2015</v>
       </c>
     </row>
   </sheetData>
